--- a/data/trans_dic/P18_5_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P18_5_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:W18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -532,12 +533,18 @@
     <col width="14" customWidth="1" min="15" max="15"/>
     <col width="14" customWidth="1" min="16" max="16"/>
     <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se ha sentido rebosante de energía en ningún momento o casi ningún momento en la última semana</t>
+          <t>Población que se ha sentido rebosante de energía en ningún momento o casi ningún momento en la última semana (tasa de respuesta: 99,6%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -550,24 +557,30 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
       <c r="O1" s="3" t="n"/>
       <c r="P1" s="3" t="n"/>
-      <c r="Q1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -594,57 +607,87 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="O2" s="3" t="inlineStr">
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="P2" s="3" t="inlineStr">
+      <c r="T2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="Q2" s="3" t="inlineStr">
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -666,6 +709,12 @@
       <c r="O3" s="2" t="n"/>
       <c r="P3" s="2" t="n"/>
       <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -680,77 +729,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>21,03%</t>
+          <t>21,04%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>4,86%</t>
+          <t>5,41%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>5,68%</t>
+          <t>5,54%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>9,17%</t>
+          <t>9,25%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>94,98%</t>
+          <t>10,69%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>27,96%</t>
+          <t>5,01%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>5,86%</t>
+          <t>8,14%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>12,35%</t>
+          <t>27,97%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
+          <t>5,92%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>12,47%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
           <t>10,29%</t>
         </is>
       </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>86,13%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>24,33%</t>
-        </is>
-      </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>5,34%</t>
+          <t>13,35%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
+          <t>13,87%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>14,41%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>24,34%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>5,66%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
           <t>8,99%</t>
         </is>
       </c>
-      <c r="P4" s="2" t="inlineStr">
-        <is>
-          <t>9,74%</t>
-        </is>
-      </c>
-      <c r="Q4" s="2" t="inlineStr">
-        <is>
-          <t>90,78%</t>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>9,78%</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>12,03%</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>9,22%</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>11,12%</t>
         </is>
       </c>
     </row>
@@ -763,77 +842,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>15,68; 29,32</t>
+          <t>15,46; 30,12</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,29; 10,24</t>
+          <t>2,34; 10,83</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,75; 11,57</t>
+          <t>2,5; 10,18</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,46; 15,53</t>
+          <t>4,44; 15,41</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>89,25; 98,13</t>
+          <t>5,26; 19,86</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>21,17; 36,31</t>
+          <t>1,31; 10,14</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,72; 10,51</t>
+          <t>3,89; 14,99</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>8,02; 18,18</t>
+          <t>21,62; 35,99</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>6,32; 15,76</t>
+          <t>2,69; 10,79</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>78,64; 91,37</t>
+          <t>8,31; 18,02</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>19,54; 29,48</t>
+          <t>6,26; 15,95</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>3,13; 8,33</t>
+          <t>7,67; 21,31</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>6,13; 12,53</t>
+          <t>8,09; 21,32</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>6,78; 13,93</t>
+          <t>8,69; 22,3</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>86,8; 94,33</t>
+          <t>19,94; 29,85</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>3,37; 8,9</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>6,15; 12,59</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>6,82; 13,84</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>8,27; 17,23</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>5,96; 14,07</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>7,26; 15,93</t>
         </is>
       </c>
     </row>
@@ -855,72 +964,102 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>13,35%</t>
+          <t>14,76%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>8,42%</t>
+          <t>8,46%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>12,32%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>6,84%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>5,08%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>10,31%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>24,38%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>8,09%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>12,92%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>12,03%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
           <t>11,8%</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>94,92%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>24,38%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>8,29%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>12,89%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>12,3%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>85,33%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>14,67%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>8,03%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
         <is>
           <t>25,49%</t>
         </is>
       </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>10,92%</t>
-        </is>
-      </c>
-      <c r="O6" s="2" t="inlineStr">
-        <is>
-          <t>10,55%</t>
-        </is>
-      </c>
-      <c r="P6" s="2" t="inlineStr">
-        <is>
-          <t>12,03%</t>
-        </is>
-      </c>
-      <c r="Q6" s="2" t="inlineStr">
-        <is>
-          <t>90,23%</t>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>11,58%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>10,58%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>12,18%</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>9,15%</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>9,77%</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>9,21%</t>
         </is>
       </c>
     </row>
@@ -933,77 +1072,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>18,33; 38,36</t>
+          <t>18,39; 38,19</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,41; 24,68</t>
+          <t>7,75; 30,11</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,01; 12,35</t>
+          <t>4,87; 13,41</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>7,31; 21,32</t>
+          <t>7,27; 22,62</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>88,31; 98,28</t>
+          <t>3,55; 11,68</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>18,95; 30,51</t>
+          <t>1,82; 12,21</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,56; 13,56</t>
+          <t>5,16; 19,34</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>9,17; 17,93</t>
+          <t>18,93; 30,54</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>8,75; 17,74</t>
+          <t>4,56; 13,04</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>78,77; 90,13</t>
+          <t>9,0; 18,19</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>20,27; 32,21</t>
+          <t>8,23; 16,46</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>6,76; 17,5</t>
+          <t>7,51; 17,42</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>7,93; 13,86</t>
+          <t>9,97; 21,51</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>8,56; 17,02</t>
+          <t>4,49; 13,63</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>86,05; 93,3</t>
+          <t>20,54; 31,97</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>7,54; 19,79</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>7,93; 14,15</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>9,02; 18,77</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>6,38; 12,88</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>6,71; 14,12</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>6,15; 14,3</t>
         </is>
       </c>
     </row>
@@ -1025,72 +1194,102 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>7,86%</t>
+          <t>8,65%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>10,93%</t>
+          <t>10,82%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>9,54%</t>
+          <t>9,34%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>90,21%</t>
+          <t>16,69%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
+          <t>9,8%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>8,37%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
           <t>24,45%</t>
         </is>
       </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>9,27%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>15,94%</t>
-        </is>
-      </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>14,64%</t>
+          <t>9,47%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>87,72%</t>
+          <t>16,26%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>23,92%</t>
+          <t>14,79%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>8,57%</t>
+          <t>17,34%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>13,49%</t>
+          <t>12,28%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>12,15%</t>
+          <t>10,69%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>89,03%</t>
+          <t>23,91%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>9,06%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>13,62%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>12,13%</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>17,02%</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>10,97%</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
+          <t>9,47%</t>
         </is>
       </c>
     </row>
@@ -1103,77 +1302,107 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>18,35; 29,03</t>
+          <t>18,43; 29,32</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,42; 13,96</t>
+          <t>4,92; 16,26</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,15; 15,75</t>
+          <t>7,16; 15,62</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,49; 13,46</t>
+          <t>6,54; 12,78</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>84,1; 93,79</t>
+          <t>11,76; 22,7</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>19,91; 29,69</t>
+          <t>5,94; 15,65</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>6,55; 12,97</t>
+          <t>5,13; 12,87</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>12,46; 20,29</t>
+          <t>19,62; 29,53</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>10,94; 18,18</t>
+          <t>6,44; 13,31</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>83,22; 91,53</t>
+          <t>12,82; 20,77</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>20,5; 27,57</t>
+          <t>11,47; 18,78</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>6,24; 11,96</t>
+          <t>13,15; 22,16</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>10,86; 16,87</t>
+          <t>8,65; 16,78</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>9,81; 14,82</t>
+          <t>6,87; 14,98</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>85,27; 91,7</t>
+          <t>20,56; 27,57</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>6,78; 13,06</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>11,05; 16,84</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>9,78; 14,91</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>13,71; 20,46</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>8,0; 14,66</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
+        <is>
+          <t>7,06; 12,91</t>
         </is>
       </c>
     </row>
@@ -1195,72 +1424,102 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>6,14%</t>
+          <t>6,43%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>13,93%</t>
+          <t>13,9%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>11,77%</t>
+          <t>12,12%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>89,83%</t>
+          <t>12,66%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
+          <t>10,17%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>14,14%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
           <t>32,55%</t>
         </is>
       </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>14,35%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>19,79%</t>
-        </is>
-      </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>19,55%</t>
+          <t>14,62%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>81,99%</t>
+          <t>19,91%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
+          <t>19,76%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>20,66%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>18,01%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>17,29%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
           <t>27,83%</t>
         </is>
       </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>10,4%</t>
-        </is>
-      </c>
-      <c r="O10" s="2" t="inlineStr">
-        <is>
-          <t>16,93%</t>
-        </is>
-      </c>
-      <c r="P10" s="2" t="inlineStr">
-        <is>
-          <t>15,71%</t>
-        </is>
-      </c>
-      <c r="Q10" s="2" t="inlineStr">
-        <is>
-          <t>86,14%</t>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>10,63%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>16,97%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>16,0%</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>16,68%</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>13,86%</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>15,66%</t>
         </is>
       </c>
     </row>
@@ -1273,77 +1532,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>18,16; 29,84</t>
+          <t>17,88; 29,81</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,92; 9,29</t>
+          <t>3,84; 9,99</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>10,32; 19,86</t>
+          <t>10,36; 19,41</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>8,52; 15,7</t>
+          <t>8,89; 15,86</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>84,62; 93,52</t>
+          <t>8,15; 22,06</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>27,83; 37,74</t>
+          <t>6,49; 14,96</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>10,56; 18,73</t>
+          <t>9,36; 18,97</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>15,87; 24,63</t>
+          <t>28,16; 37,89</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>15,62; 23,93</t>
+          <t>10,94; 18,88</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>76,4; 86,25</t>
+          <t>15,9; 24,18</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>24,55; 31,91</t>
+          <t>15,84; 24,0</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>8,09; 13,04</t>
+          <t>16,62; 25,45</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>14,0; 20,29</t>
+          <t>13,26; 23,52</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>13,15; 18,58</t>
+          <t>12,56; 22,4</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>82,31; 89,07</t>
+          <t>24,31; 32,3</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>8,35; 13,42</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>14,2; 20,22</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>13,32; 18,88</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>13,51; 21,52</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>10,73; 17,55</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>12,22; 19,15</t>
         </is>
       </c>
     </row>
@@ -1360,77 +1649,107 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>19,13%</t>
+          <t>19,14%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>3,92%</t>
+          <t>4,01%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>14,46%</t>
+          <t>14,41%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>13,47%</t>
+          <t>13,68%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>87,52%</t>
+          <t>11,99%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>30,59%</t>
+          <t>12,48%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>13,07%</t>
+          <t>12,21%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>24,73%</t>
+          <t>30,6%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>21,0%</t>
+          <t>12,78%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>81,59%</t>
+          <t>24,91%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
+          <t>20,97%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>19,2%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>18,41%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>13,58%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
           <t>24,83%</t>
         </is>
       </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>8,55%</t>
-        </is>
-      </c>
-      <c r="O12" s="2" t="inlineStr">
-        <is>
-          <t>19,56%</t>
-        </is>
-      </c>
-      <c r="P12" s="2" t="inlineStr">
-        <is>
-          <t>17,29%</t>
-        </is>
-      </c>
-      <c r="Q12" s="2" t="inlineStr">
-        <is>
-          <t>84,42%</t>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>8,44%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>19,62%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>17,39%</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>15,69%</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="inlineStr">
+        <is>
+          <t>15,58%</t>
+        </is>
+      </c>
+      <c r="W12" s="2" t="inlineStr">
+        <is>
+          <t>12,91%</t>
         </is>
       </c>
     </row>
@@ -1443,77 +1762,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>14,28; 24,86</t>
+          <t>14,79; 25,93</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,79; 7,35</t>
+          <t>1,88; 7,6</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>10,33; 19,49</t>
+          <t>10,1; 18,8</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>9,43; 19,36</t>
+          <t>9,55; 19,69</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>81,88; 91,81</t>
+          <t>7,81; 16,86</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>24,95; 37,04</t>
+          <t>8,16; 18,31</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>8,91; 18,38</t>
+          <t>8,06; 17,79</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>19,46; 30,57</t>
+          <t>24,73; 36,95</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>15,77; 25,75</t>
+          <t>8,67; 17,78</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>75,44; 86,12</t>
+          <t>19,88; 30,87</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>21,17; 29,01</t>
+          <t>16,62; 26,64</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>6,21; 11,56</t>
+          <t>13,91; 25,03</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>16,53; 23,72</t>
+          <t>13,56; 23,63</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>13,81; 20,94</t>
+          <t>9,34; 19,14</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>80,42; 87,68</t>
+          <t>20,77; 29,22</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>6,17; 11,17</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>16,08; 23,52</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>14,4; 21,71</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>12,19; 19,68</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
+          <t>12,32; 19,58</t>
+        </is>
+      </c>
+      <c r="W13" s="2" t="inlineStr">
+        <is>
+          <t>9,8; 16,71</t>
         </is>
       </c>
     </row>
@@ -1535,72 +1884,102 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>16,46%</t>
+          <t>15,82%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>21,74%</t>
+          <t>21,52%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>19,04%</t>
+          <t>18,68%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>82,95%</t>
+          <t>10,95%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
+          <t>17,04%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>13,74%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
           <t>38,04%</t>
         </is>
       </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>19,53%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>25,75%</t>
-        </is>
-      </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>28,62%</t>
+          <t>18,88%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>82,44%</t>
+          <t>26,4%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
+          <t>30,36%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>23,52%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>17,56%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>21,15%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
           <t>33,82%</t>
         </is>
       </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>18,24%</t>
-        </is>
-      </c>
-      <c r="O14" s="2" t="inlineStr">
-        <is>
-          <t>24,01%</t>
-        </is>
-      </c>
-      <c r="P14" s="2" t="inlineStr">
-        <is>
-          <t>24,43%</t>
-        </is>
-      </c>
-      <c r="Q14" s="2" t="inlineStr">
-        <is>
-          <t>82,65%</t>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>17,6%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>24,28%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>25,24%</t>
+        </is>
+      </c>
+      <c r="U14" s="2" t="inlineStr">
+        <is>
+          <t>17,98%</t>
+        </is>
+      </c>
+      <c r="V14" s="2" t="inlineStr">
+        <is>
+          <t>17,34%</t>
+        </is>
+      </c>
+      <c r="W14" s="2" t="inlineStr">
+        <is>
+          <t>18,09%</t>
         </is>
       </c>
     </row>
@@ -1613,77 +1992,107 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>22,17; 34,64</t>
+          <t>22,1; 34,27</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>10,08; 25,98</t>
+          <t>9,89; 25,19</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>15,72; 29,0</t>
+          <t>15,77; 28,84</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>13,37; 28,21</t>
+          <t>12,95; 27,05</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>75,44; 88,54</t>
+          <t>5,97; 17,92</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>32,29; 44,25</t>
+          <t>11,4; 24,43</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>14,25; 26,73</t>
+          <t>8,66; 21,34</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>20,49; 32,15</t>
+          <t>32,16; 43,51</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>21,77; 35,11</t>
+          <t>13,29; 25,45</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>74,49; 88,51</t>
+          <t>21,07; 32,47</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>29,71; 38,73</t>
+          <t>23,68; 38,13</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>13,95; 23,85</t>
+          <t>16,17; 33,43</t>
         </is>
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>20,01; 29,05</t>
+          <t>11,91; 26,06</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>19,85; 29,81</t>
+          <t>14,55; 27,81</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>77,67; 87,1</t>
+          <t>29,67; 38,68</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>13,6; 23,16</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>20,23; 28,58</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>20,81; 30,37</t>
+        </is>
+      </c>
+      <c r="U15" s="2" t="inlineStr">
+        <is>
+          <t>13,4; 24,39</t>
+        </is>
+      </c>
+      <c r="V15" s="2" t="inlineStr">
+        <is>
+          <t>12,87; 22,7</t>
+        </is>
+      </c>
+      <c r="W15" s="2" t="inlineStr">
+        <is>
+          <t>13,59; 23,09</t>
         </is>
       </c>
     </row>
@@ -1705,72 +2114,102 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>8,73%</t>
+          <t>9,19%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>12,45%</t>
+          <t>12,37%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>12,32%</t>
+          <t>12,42%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>90,05%</t>
+          <t>11,83%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
+          <t>9,95%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>11,14%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
           <t>30,03%</t>
         </is>
       </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>12,22%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>18,78%</t>
-        </is>
-      </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>18,12%</t>
+          <t>12,12%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>84,08%</t>
+          <t>19,04%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
+          <t>18,47%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>18,13%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>15,92%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>14,56%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
           <t>26,84%</t>
         </is>
       </c>
-      <c r="N16" s="2" t="inlineStr">
-        <is>
-          <t>10,52%</t>
-        </is>
-      </c>
-      <c r="O16" s="2" t="inlineStr">
-        <is>
-          <t>15,69%</t>
-        </is>
-      </c>
-      <c r="P16" s="2" t="inlineStr">
-        <is>
-          <t>15,29%</t>
-        </is>
-      </c>
-      <c r="Q16" s="2" t="inlineStr">
-        <is>
-          <t>87,05%</t>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>10,69%</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>15,78%</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>15,51%</t>
+        </is>
+      </c>
+      <c r="U16" s="2" t="inlineStr">
+        <is>
+          <t>15,05%</t>
+        </is>
+      </c>
+      <c r="V16" s="2" t="inlineStr">
+        <is>
+          <t>12,95%</t>
+        </is>
+      </c>
+      <c r="W16" s="2" t="inlineStr">
+        <is>
+          <t>12,86%</t>
         </is>
       </c>
     </row>
@@ -1783,94 +2222,2774 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>20,91; 26,34</t>
+          <t>20,84; 26,52</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>6,79; 11,41</t>
+          <t>7,12; 12,19</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>10,57; 14,5</t>
+          <t>10,7; 14,57</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>10,32; 14,86</t>
+          <t>10,53; 14,95</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>87,74; 91,88</t>
+          <t>9,88; 14,49</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>27,89; 32,44</t>
+          <t>7,95; 12,26</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>10,46; 14,16</t>
+          <t>9,2; 13,33</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>16,67; 20,59</t>
+          <t>27,8; 32,56</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>16,23; 20,13</t>
+          <t>10,45; 13,97</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>81,57; 86,22</t>
+          <t>17,25; 21,17</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>25,23; 28,86</t>
+          <t>16,47; 20,51</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>9,09; 11,98</t>
+          <t>15,99; 20,85</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>14,38; 17,17</t>
+          <t>13,73; 18,44</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>13,87; 16,71</t>
+          <t>12,51; 17,13</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>85,55; 88,64</t>
+          <t>25,19; 28,81</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>9,28; 12,48</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>14,45; 17,35</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>14,19; 17,22</t>
+        </is>
+      </c>
+      <c r="U17" s="2" t="inlineStr">
+        <is>
+          <t>13,41; 17,09</t>
+        </is>
+      </c>
+      <c r="V17" s="2" t="inlineStr">
+        <is>
+          <t>11,49; 14,56</t>
+        </is>
+      </c>
+      <c r="W17" s="2" t="inlineStr">
+        <is>
+          <t>11,4; 14,62</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="Q1:W1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="C1:I1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:W25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se ha sentido rebosante de energía en ningún momento o casi ningún momento en la última semana (tasa de respuesta: 99,6%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>79.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>107254</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>27170</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>28859</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>46204</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>50386</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>2073</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>3458</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>129469</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>27575</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>64193</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>52902</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>63713</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>5187</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>5555</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>236723</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>54746</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>93052</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>99105</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>114098</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>7260</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>9012</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>78829; 153520</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>11760; 54354</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>13012; 52987</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>22179; 77023</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>24778; 93595</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>543; 4194</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>1651; 6367</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>100074; 166602</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>12550; 50283</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>42803; 92776</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>32187; 81997</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>36600; 101704</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>3026; 7972</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>3349; 8597</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>193940; 290339</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>32648; 86140</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>63645; 130407</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>69140; 140251</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>78473; 163364</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>4693; 11079</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>5879; 12906</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>89.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>149433</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>83704</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>47118</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>72578</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>39668</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>2484</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>5053</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>126473</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>41777</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>65215</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>62229</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>59377</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>6883</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>3694</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>275906</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>125481</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>112333</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>134808</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>99046</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>9367</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
+          <t>8747</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>103612; 215153</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>43961; 170749</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>27143; 74709</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>42818; 133259</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>20606; 67750</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>888; 5974</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>2527; 9478</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>98240; 158470</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>23525; 67315</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>45436; 91814</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>42568; 85150</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>37782; 87607</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>4682; 10095</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>2068; 6272</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>222265; 346005</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>81691; 214466</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>84192; 150251</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>99808; 207663</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>69076; 139451</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>6433; 13532</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
+        <is>
+          <t>5840; 13591</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>79.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>140.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>85.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>92.0</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>157947</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>59337</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>73454</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>63535</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>112859</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>5859</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>5061</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>168761</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>67187</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>116536</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>105312</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>123305</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>6585</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>5866</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>326707</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>126524</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>189990</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>168847</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>236164</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>12444</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>10926</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>124557; 198182</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>33781; 111614</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>48596; 106008</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>44472; 86917</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>79502; 153452</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>3553; 9356</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>3105; 7783</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>135437; 203871</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>45678; 94461</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>91882; 148838</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>81638; 133713</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>93555; 157629</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>4636; 9001</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>3769; 8215</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>280818; 376707</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>94620; 182277</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>154191; 235002</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>136109; 207527</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>190139; 283825</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="inlineStr">
+        <is>
+          <t>9078; 16623</t>
+        </is>
+      </c>
+      <c r="W12" s="2" t="inlineStr">
+        <is>
+          <t>8149; 14894</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>117.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>178.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>113.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>117.0</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="W13" s="2" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>143386</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>41271</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>89484</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>77022</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>82495</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>5925</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>8052</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>227678</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>99030</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>134075</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>129411</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>135743</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>9353</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>9214</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>371063</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>140301</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>223559</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>206433</t>
+        </is>
+      </c>
+      <c r="U14" s="2" t="inlineStr">
+        <is>
+          <t>218238</t>
+        </is>
+      </c>
+      <c r="V14" s="2" t="inlineStr">
+        <is>
+          <t>15278</t>
+        </is>
+      </c>
+      <c r="W14" s="2" t="inlineStr">
+        <is>
+          <t>17266</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>113375; 189006</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>24636; 64166</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>66679; 124907</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>56500; 100819</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>53056; 143703</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>3780; 8716</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>5333; 10807</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>196959; 265077</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>74066; 127870</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>107081; 162845</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>103698; 157145</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>109212; 167215</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>6887; 12217</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>6695; 11937</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>324154; 430686</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>110121; 177031</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>186988; 266314</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>171884; 243622</t>
+        </is>
+      </c>
+      <c r="U15" s="2" t="inlineStr">
+        <is>
+          <t>176736; 281603</t>
+        </is>
+      </c>
+      <c r="V15" s="2" t="inlineStr">
+        <is>
+          <t>11827; 19346</t>
+        </is>
+      </c>
+      <c r="W15" s="2" t="inlineStr">
+        <is>
+          <t>13468; 21114</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>118.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+      <c r="U16" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="V16" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="W16" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>96850</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>19765</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>72340</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>67521</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>58132</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>5484</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>5483</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>153108</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>64282</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>123058</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>107158</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>98206</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>8880</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>6277</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>249959</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>84048</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>195399</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>174678</t>
+        </is>
+      </c>
+      <c r="U17" s="2" t="inlineStr">
+        <is>
+          <t>156337</t>
+        </is>
+      </c>
+      <c r="V17" s="2" t="inlineStr">
+        <is>
+          <t>14364</t>
+        </is>
+      </c>
+      <c r="W17" s="2" t="inlineStr">
+        <is>
+          <t>11760</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>74852; 131241</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>9290; 37436</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>50733; 94415</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>47141; 97180</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>37884; 81782</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>3584; 8048</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>3617; 7987</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>123771; 184904</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>43616; 89389</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>98203; 152482</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>84957; 136144</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>71144; 128039</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>6541; 11399</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>4318; 8847</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>209023; 294144</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>61404; 111198</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>160197; 234341</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>144679; 218108</t>
+        </is>
+      </c>
+      <c r="U18" s="2" t="inlineStr">
+        <is>
+          <t>121438; 196110</t>
+        </is>
+      </c>
+      <c r="V18" s="2" t="inlineStr">
+        <is>
+          <t>11356; 18045</t>
+        </is>
+      </c>
+      <c r="W18" s="2" t="inlineStr">
+        <is>
+          <t>8929; 15228</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>103.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>162.0</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>104.0</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="U19" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="V19" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="W19" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>145456</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>81809</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>112006</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>98455</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>61349</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>7843</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>6157</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>270860</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>134451</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>178378</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>205154</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>167083</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>11039</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>13464</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>416316</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>216259</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>290384</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>303609</t>
+        </is>
+      </c>
+      <c r="U20" s="2" t="inlineStr">
+        <is>
+          <t>228432</t>
+        </is>
+      </c>
+      <c r="V20" s="2" t="inlineStr">
+        <is>
+          <t>18883</t>
+        </is>
+      </c>
+      <c r="W20" s="2" t="inlineStr">
+        <is>
+          <t>19621</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>114685; 177834</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>51158; 130257</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>82093; 150126</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>68269; 142601</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>33441; 100432</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>5249; 11244</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>3883; 9564</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>229009; 309859</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>94610; 181245</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>142352; 219331</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>160033; 257658</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>114854; 237471</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>7492; 16385</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>9265; 17706</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>365248; 476180</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>167123; 284678</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>241920; 341820</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>250358; 365261</t>
+        </is>
+      </c>
+      <c r="U21" s="2" t="inlineStr">
+        <is>
+          <t>170311; 309925</t>
+        </is>
+      </c>
+      <c r="V21" s="2" t="inlineStr">
+        <is>
+          <t>14012; 24723</t>
+        </is>
+      </c>
+      <c r="W21" s="2" t="inlineStr">
+        <is>
+          <t>14739; 25049</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>297.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>172.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>166.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>122.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>92.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>105.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>469.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>160.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>308.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>303.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>223.0</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>171.0</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>155.0</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>766.0</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>246.0</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>480.0</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>469.0</t>
+        </is>
+      </c>
+      <c r="U22" s="2" t="inlineStr">
+        <is>
+          <t>345.0</t>
+        </is>
+      </c>
+      <c r="V22" s="2" t="inlineStr">
+        <is>
+          <t>263.0</t>
+        </is>
+      </c>
+      <c r="W22" s="2" t="inlineStr">
+        <is>
+          <t>260.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>800325</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>313056</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>423262</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>425315</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>404889</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>29669</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>33264</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>1076349</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>434302</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>681457</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>662165</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>647427</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>47928</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>44069</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>1876674</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>747358</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>1104718</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>1087480</t>
+        </is>
+      </c>
+      <c r="U23" s="2" t="inlineStr">
+        <is>
+          <t>1052316</t>
+        </is>
+      </c>
+      <c r="V23" s="2" t="inlineStr">
+        <is>
+          <t>77597</t>
+        </is>
+      </c>
+      <c r="W23" s="2" t="inlineStr">
+        <is>
+          <t>77333</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>710247; 903646</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>242673; 415360</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>366283; 498677</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>360623; 511902</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>338287; 496134</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>23711; 36566</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>27477; 39810</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>996543; 1167041</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>374672; 500575</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>617480; 757834</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>590612; 735228</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>570754; 744438</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>41340; 55497</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>37855; 51852</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>1760986; 2014450</t>
+        </is>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>648512; 872594</t>
+        </is>
+      </c>
+      <c r="S24" s="2" t="inlineStr">
+        <is>
+          <t>1011818; 1214639</t>
+        </is>
+      </c>
+      <c r="T24" s="2" t="inlineStr">
+        <is>
+          <t>994663; 1207262</t>
+        </is>
+      </c>
+      <c r="U24" s="2" t="inlineStr">
+        <is>
+          <t>937839; 1195517</t>
+        </is>
+      </c>
+      <c r="V24" s="2" t="inlineStr">
+        <is>
+          <t>68868; 87242</t>
+        </is>
+      </c>
+      <c r="W24" s="2" t="inlineStr">
+        <is>
+          <t>68562; 87888</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="J1:P1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="Q1:W1"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>